--- a/medicine/Enfance/Kinderstern/Kinderstern.xlsx
+++ b/medicine/Enfance/Kinderstern/Kinderstern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Kinderstern  (Étoile pour les enfants) est une œuvre d'art créée par Imi Knoebel dont l'intégralité des bénéfices va aux projets pour des enfants dans l'adversité. Le Kinderstern a pu collecter plus que deux millions Euros de dons. Il bénéficie du soutien des amis de l'art, de musiciens, de musées et d'organisateurs des foires de l'art[1],[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kinderstern  (Étoile pour les enfants) est une œuvre d'art créée par Imi Knoebel dont l'intégralité des bénéfices va aux projets pour des enfants dans l'adversité. Le Kinderstern a pu collecter plus que deux millions Euros de dons. Il bénéficie du soutien des amis de l'art, de musiciens, de musées et d'organisateurs des foires de l'art.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Énoncé de mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étoile des enfants représente les droits des enfants.
 </t>
@@ -542,9 +556,11 @@
           <t>Idée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Kinderstern est une sculpture sociale[6] à travers laquelle l'art s'érige en droit pour les enfants. Sous son égide, sont rassemblés les droits fondamentaux qui leur sont refusés et, en ce sens, le Kinderstern se veut leur œuvre d'art. C'est une pratique élargie de la notion d'art comme modificateur social, laquelle avait été formulée par Joseph Beuys en 1967. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Kinderstern est une sculpture sociale à travers laquelle l'art s'érige en droit pour les enfants. Sous son égide, sont rassemblés les droits fondamentaux qui leur sont refusés et, en ce sens, le Kinderstern se veut leur œuvre d'art. C'est une pratique élargie de la notion d'art comme modificateur social, laquelle avait été formulée par Joseph Beuys en 1967. 
 Le Kinderstern représente aussi la dignité de tous les enfants. Il désigne le droit à un chez-soi, à la nourriture, à l'affection bienveillante, du suivi médicale et à l'éducation. Les dons collectés pour le Kinderstern sont exclusivement dédiés aux droits des enfants et la notion d'argent se trouve approfondie, remotivée et s'inscrit dans la défense de ces droits. 
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première publication du Kinderstern est une sérigraphie datée de 1988. Cette œuvre fait partie d'une publication de 1989 éditée sous le titre  Kinderstern par Luitpold Domberger (éditions Domberger), dans laquelle ont été réunis des travaux de Sol LeWitt, Joerg Immendorf, Sigmar Polke, Max Bill, Heinz Mack et Keith Haring sous la tutelle de Lothar Spaeth[7]. La recette a servi au financement d'appartements à proximité des cliniques pour aider les parents des enfants hospitalisés. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première publication du Kinderstern est une sérigraphie datée de 1988. Cette œuvre fait partie d'une publication de 1989 éditée sous le titre  Kinderstern par Luitpold Domberger (éditions Domberger), dans laquelle ont été réunis des travaux de Sol LeWitt, Joerg Immendorf, Sigmar Polke, Max Bill, Heinz Mack et Keith Haring sous la tutelle de Lothar Spaeth. La recette a servi au financement d'appartements à proximité des cliniques pour aider les parents des enfants hospitalisés. 
 Imi Knoebel a dépassé le projet initial du Kinderstern en le continuant et l'élargissant, y étant désormais étroitement lié. Le Kinderstern est devenu un programme, la promesse de monter au créneau pour défendre les enfants. Au nom et sous l'égide du Kinderstern une association sans but lucratif, dont le siège se trouve à Düsseldorf, a vu le jour. Elle s'est donné pour mission de trouver des projets communs à réaliser au profit d'enfants dans l'adversité. Imi Knoebel, qui n'est pas membre de cette association (car initiateur du projet), s'est obligé à produire en continu des Kinderstern pour la cause de l'association. Presque tous les ans de nouvelles Kinderstern, des badges inédits aux coloris limités, sont édités, et récompensent les donateurs qui soutiennent le projet.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1991: Art Cologne
 1993: Art Frankfurt
@@ -641,11 +661,13 @@
           <t>Subventions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1989 : Grace-P.-Kelly, Stiftung zugunsten Krebskranker Kinder[8]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1989 : Grace-P.-Kelly, Stiftung zugunsten Krebskranker Kinder
 1990 : Fanconi-Anämie, Projet de recherche à l'Hôpital des enfants Université Heinrich-Heine Düsseldorf
-1991 : Human-Environnement, aide aux victimes de Tchernobyl[9]
+1991 : Human-Environnement, aide aux victimes de Tchernobyl
 1992 : Instituicao Filantropica von Sergius Erdelyi, Brésil.
 1994 : Fondation Phönikks
 1995 : Enfant Planet Heidelberg
